--- a/Output/Relatorio-Erros-TE598431.xlsx
+++ b/Output/Relatorio-Erros-TE598431.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levi.sistemas\Downloads\NuCase\NubankCase_RelatorioVendas\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E49C6F9-382E-4F59-A64E-2CE69B785B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38450650-AFE2-43E6-B395-277686A56192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{97918CDB-EF32-412A-B1D5-70148E2F2132}"/>
   </bookViews>

--- a/Output/Relatorio-Erros-TE598431.xlsx
+++ b/Output/Relatorio-Erros-TE598431.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levi.sistemas\Downloads\NuCase\NubankCase_RelatorioVendas\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B08F01-6D48-4AE0-A809-DC4FEA585F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510E78BE-0C13-4474-B3DA-0EB23E711BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{997214AD-1207-41B8-B755-8CE6F49CBB82}"/>
   </bookViews>
